--- a/ActiTime-Automation/Controller/data_Controller.xlsx
+++ b/ActiTime-Automation/Controller/data_Controller.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CurrentWorkSpace\TestAutomation\ActiTime-Automation\Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EVENING_SEPTEMBER-2019_BATCH\Automation\ActiTime-Automation\Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>TestcaseID</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Login</t>
   </si>
   <si>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;logout--&gt;closeApplication</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -53,18 +56,27 @@
     <t>CreateUser</t>
   </si>
   <si>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;CreateUser--&gt;DeleteUser--&gt;logout--&gt;closeApplication</t>
+  </si>
+  <si>
     <t>TC03</t>
   </si>
   <si>
     <t>ModifyUser</t>
   </si>
   <si>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;CreateUser--&gt;ModifyUser--&gt;DeleteUser--&gt;logout--&gt;closeApplication</t>
+  </si>
+  <si>
     <t>TC04</t>
   </si>
   <si>
     <t>CreateCustomer</t>
   </si>
   <si>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;CreateCustomer--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -74,43 +86,25 @@
     <t>ModifyCustomer</t>
   </si>
   <si>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;CreateCustomer--&gt;ModifyCustomer--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
+  </si>
+  <si>
     <t>TC06</t>
   </si>
   <si>
     <t>CreateProject</t>
   </si>
   <si>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;CreateCustomer--&gt;CreateProject--&gt;DeleteProject--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
+  </si>
+  <si>
     <t>TC07</t>
   </si>
   <si>
     <t>ModifyProject</t>
   </si>
   <si>
-    <t>TC08</t>
-  </si>
-  <si>
-    <t>CreateTasks</t>
-  </si>
-  <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow--&gt;logout--&gt;closeApplication</t>
-  </si>
-  <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow--&gt;CreateUser--&gt;DeleteUser--&gt;logout--&gt;closeApplication</t>
-  </si>
-  <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow--&gt;CreateUser--&gt;ModifyUser--&gt;DeleteUser--&gt;logout--&gt;closeApplication</t>
-  </si>
-  <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow--&gt;CreateCustomer--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
-  </si>
-  <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow--&gt;CreateCustomer--&gt;ModifyCustomer--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
-  </si>
-  <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow--&gt;CreateCustomer--&gt;CreateProject--&gt;DeleteProject--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
-  </si>
-  <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow--&gt;CreateCustomer--&gt;CreateProject--&gt;ModifyProject--&gt;DeleteProject--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;CreateCustomer--&gt;CreateProject--&gt;ModifyProject--&gt;DeleteProject--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
   </si>
 </sst>
 </file>
@@ -142,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -151,16 +145,147 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -169,14 +294,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,154 +593,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="8" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D8" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D8">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>